--- a/cipro.xlsx
+++ b/cipro.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BEF640-CCAD-1143-8F0D-E6B6702B9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FBD571-5BC2-764B-8E17-8DDCA001146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="7220" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
+    <workbookView xWindow="3180" yWindow="13440" windowWidth="27640" windowHeight="16940" xr2:uid="{B216AA04-8970-5148-BB64-D15592C759ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,408 +440,288 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>9.4</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>16</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>24</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>40</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>80</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>24</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>9.4</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>2.5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>9.5</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>14</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>24</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>9.5</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>10.6</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>17.600000000000001</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>21.4</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9.4</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2">
-        <v>16</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>24</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2">
-        <v>24</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>80</v>
-      </c>
-      <c r="B21" s="2">
-        <v>24</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9.4</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B23" s="2">
-        <v>9.5</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>10</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>24</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.5</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10.6</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>8</v>
-      </c>
-      <c r="B29" s="2">
-        <v>12</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2">
-        <v>17.600000000000001</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2">
-        <v>21.4</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2">
-        <v>9.4</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2">
-        <v>16</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>20</v>
-      </c>
-      <c r="B34" s="2">
-        <v>24</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>40</v>
-      </c>
-      <c r="B35" s="2">
-        <v>24</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>80</v>
-      </c>
-      <c r="B36" s="2">
-        <v>24</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2">
-        <v>9.4</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B38" s="2">
-        <v>9.5</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2">
-        <v>10</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>10</v>
-      </c>
-      <c r="B40" s="2">
-        <v>14</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>20</v>
-      </c>
-      <c r="B41" s="2">
-        <v>24</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>0</v>
-      </c>
-      <c r="B42" s="2">
-        <v>9.5</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>6</v>
-      </c>
-      <c r="B43" s="2">
-        <v>10.6</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>8</v>
-      </c>
-      <c r="B44" s="2">
-        <v>12</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2">
-        <v>17.600000000000001</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>15</v>
-      </c>
-      <c r="B46" s="2">
-        <v>21.4</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
